--- a/shinyapp/data/studenttoteacherratiolcps.xlsx
+++ b/shinyapp/data/studenttoteacherratiolcps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayosborne/Downloads/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D629914C-DAE8-C643-8F29-BE9474D17C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAFCD37-DC42-D843-9B09-7BB8DD75A3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0541B77E-C054-DA43-A18D-EB200CFD5372}"/>
   </bookViews>
@@ -35,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Schools</t>
   </si>
   <si>
     <t>Student to Teacher Ratio</t>
-  </si>
-  <si>
-    <t>Per Teacher</t>
   </si>
   <si>
     <t>Students per teacher at Forest Grove</t>
@@ -120,16 +117,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" Requires="we">
@@ -484,7 +481,7 @@
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{712337A2-182A-6D87-72F7-5C11C742206C}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{712337A2-182A-6D87-72F7-5C11C742206C}" frozen="1">
   <we:reference id="wa104104476" version="1.3.0.0" store="en-US" storeType="OMEX"/>
   <we:alternateReferences/>
   <we:properties>
@@ -502,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98D5447-5E61-0345-B465-397319891826}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,7 +511,7 @@
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,136 +519,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
